--- a/Harga Custom TLJ.xlsx
+++ b/Harga Custom TLJ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANA ZIKRIYANI\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CED350D-3E68-4FDC-9241-BD13E9B7CD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1F3C29-3612-43EB-BFCD-AC25970E290F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0865E421-8F7D-413A-8289-E92414008AEA}"/>
+    <workbookView xWindow="2505" yWindow="2505" windowWidth="15375" windowHeight="7875" xr2:uid="{0865E421-8F7D-413A-8289-E92414008AEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>Nama Produk</t>
   </si>
@@ -128,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -164,35 +164,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -202,13 +178,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,17 +496,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3868EE60-3048-4482-B09F-8FE75025847A}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1"/>
-    <col min="2" max="2" width="46.453125" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -547,7 +517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -558,8 +528,10 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -568,8 +540,10 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
@@ -577,8 +551,10 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
@@ -587,8 +563,10 @@
         <v>8550</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -596,8 +574,10 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -606,8 +586,10 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
@@ -615,8 +597,10 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
@@ -625,8 +609,10 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
@@ -634,8 +620,10 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
@@ -644,8 +632,10 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
@@ -653,8 +643,10 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
@@ -663,8 +655,10 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
@@ -672,8 +666,10 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
@@ -682,8 +678,10 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
@@ -691,8 +689,10 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
@@ -701,8 +701,10 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
@@ -710,8 +712,10 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="B19" s="3" t="s">
         <v>12</v>
       </c>
@@ -720,8 +724,10 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
@@ -729,8 +735,10 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
@@ -740,9 +748,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A21"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Harga Custom TLJ.xlsx
+++ b/Harga Custom TLJ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1F3C29-3612-43EB-BFCD-AC25970E290F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B645451-0C0C-48B8-A39F-AF988AE534C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="2505" windowWidth="15375" windowHeight="7875" xr2:uid="{0865E421-8F7D-413A-8289-E92414008AEA}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7875" xr2:uid="{0865E421-8F7D-413A-8289-E92414008AEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>Nama Produk</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Al QUDDUS A5 HVS,CUSTOM COVER + 1 HALAMAN</t>
+  </si>
+  <si>
+    <t>AL QUR'AN EDISI TAHLILAN 30 Juz + Doa Tahlil | Pengganti Buku Yasin | Al Aqeel A6 Pastel HVS Edisi Tahlilan</t>
+  </si>
+  <si>
+    <t>Custom sisipan 1 hal</t>
   </si>
 </sst>
 </file>
@@ -128,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -164,11 +170,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,6 +197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,15 +512,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3868EE60-3048-4482-B09F-8FE75025847A}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53" customWidth="1"/>
+    <col min="1" max="1" width="98.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -747,6 +765,17 @@
         <v>9800</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>1250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Harga Custom TLJ.xlsx
+++ b/Harga Custom TLJ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B645451-0C0C-48B8-A39F-AF988AE534C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B15F4F-040C-4426-B25E-6E7332404071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7875" xr2:uid="{0865E421-8F7D-413A-8289-E92414008AEA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0865E421-8F7D-413A-8289-E92414008AEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>Nama Produk</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>Custom sisipan 1 hal</t>
+  </si>
+  <si>
+    <t>Custom sisipan 2 hal</t>
+  </si>
+  <si>
+    <t>Custom jacket</t>
+  </si>
+  <si>
+    <t>Custom case</t>
+  </si>
+  <si>
+    <t>Sisipan 1hal+jaket</t>
   </si>
 </sst>
 </file>
@@ -185,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -197,6 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -512,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3868EE60-3048-4482-B09F-8FE75025847A}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,6 +789,50 @@
         <v>1250</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>2250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
